--- a/biology/Botanique/Schefflera_elegantissima/Schefflera_elegantissima.xlsx
+++ b/biology/Botanique/Schefflera_elegantissima/Schefflera_elegantissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schefflera elegantissima (anciennement Dizygotheca elegantissima) ou Faux aralia est un arbuste de la famille des Araliaceae. Il est originaire de Nouvelle-Calédonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre avec plusieurs tiges sur lesquelles sont implantées des feuilles constituées de groupes d'une dizaine de folioles très allongées, aux bords dentés et de couleur variables, le plus souvent bronze, vert foncé avec parfois des traces de rouge.
 C'est l'élégance de ces folioles qui a donné son nom à l'espèce.
